--- a/Project Development Phase/Testing Report/Performance Testing/Performance Report.xlsx
+++ b/Project Development Phase/Testing Report/Performance Testing/Performance Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Desktop-te31md5\f\Docs\College\SEM 7\IBM Project\IBM-Project-17344-1659634885\Project Development Phase\Testing Report\Performance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF78C4F5-461A-42BF-AFB8-8FFBF47FC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NFT- RA" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t xml:space="preserve">NFT - Risk Assessment </t>
   </si>
@@ -127,9 +128,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Test Passed</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -218,12 +216,30 @@
   <si>
     <t>PNT2022TMID07222</t>
   </si>
+  <si>
+    <t>Can able to login with already created account</t>
+  </si>
+  <si>
+    <t>Can able to create a new account and login with the account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can able to login and see the every Transactions </t>
+  </si>
+  <si>
+    <t>Logged in and can view the dashboard. Able to see the Pie-Chart and see the Last 5 Transactions</t>
+  </si>
+  <si>
+    <t>Can able to view the Profile Page and Can the Budget and Income</t>
+  </si>
+  <si>
+    <t>Recevied Mail when the expense exceed the Budget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +295,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -628,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,9 +702,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,6 +744,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -962,11 +994,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E1" s="27" t="s">
-        <v>60</v>
+      <c r="E1" s="26" t="s">
+        <v>59</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>62</v>
+      <c r="F1" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -974,11 +1006,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>61</v>
+      <c r="F2" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1002,18 +1034,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1079,51 +1111,51 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="22">
+    <row r="5" spans="1:26" s="25" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>51</v>
+      <c r="B5" s="22" t="s">
+        <v>50</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1157,13 +1189,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1228,16 +1260,16 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="7"/>
@@ -1266,16 +1298,16 @@
       <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="7"/>
@@ -1304,16 +1336,16 @@
       <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="7"/>
@@ -1342,16 +1374,16 @@
       <c r="D12" s="17">
         <v>4</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>52</v>
+      <c r="E12" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="7"/>
@@ -1380,16 +1412,16 @@
       <c r="D13" s="17">
         <v>5</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7"/>
@@ -1418,16 +1450,16 @@
       <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7"/>
@@ -1481,13 +1513,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1507,7 +1539,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -1554,31 +1586,31 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="153.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="15">
+      <c r="A18" s="37">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>51</v>
+      <c r="B18" s="37" t="s">
+        <v>50</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>53</v>
+      <c r="C18" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="15"/>
@@ -1599,16 +1631,34 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:26" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>2</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1627,16 +1677,34 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+    <row r="20" spans="1:26" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1655,16 +1723,34 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+    <row r="21" spans="1:26" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1683,16 +1769,34 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+    <row r="22" spans="1:26" ht="138.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>5</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1711,16 +1815,34 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+    <row r="23" spans="1:26" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>6</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -29164,25 +29286,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Testdata!$D$1:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Testdata!$C$1:$C$6</xm:f>
           </x14:formula1>
           <xm:sqref>H5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Testdata!$B$1:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>D5:F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Testdata!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -29195,7 +29317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29216,33 +29338,33 @@
         <v>13</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29258,20 +29380,20 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
